--- a/HKLAW_DETAILS.xlsx
+++ b/HKLAW_DETAILS.xlsx
@@ -874,9 +874,6 @@
     <t>Lindsay A. Sheehy</t>
   </si>
   <si>
-    <t>William B. Sherman</t>
-  </si>
-  <si>
     <t>Sahar Shirazi</t>
   </si>
   <si>
@@ -934,6 +931,9 @@
     <t>Meital Stavinsky</t>
   </si>
   <si>
+    <t>Ilenna J. Stein</t>
+  </si>
+  <si>
     <t>Stephen E. Stein</t>
   </si>
   <si>
@@ -1939,9 +1939,6 @@
     <t>Lindsay.Sheehy@hklaw.com</t>
   </si>
   <si>
-    <t>bill.sherman@hklaw.com</t>
-  </si>
-  <si>
     <t>Sahar.Shirazi@hklaw.com</t>
   </si>
   <si>
@@ -1999,6 +1996,9 @@
     <t>Meital.Stavinsky@hklaw.com</t>
   </si>
   <si>
+    <t>Ilenna.Stein@hklaw.com</t>
+  </si>
+  <si>
     <t>Stephen.Stein@hklaw.com</t>
   </si>
   <si>
@@ -3064,9 +3064,6 @@
     <t>203.905.4532</t>
   </si>
   <si>
-    <t>954.468.7902</t>
-  </si>
-  <si>
     <t>212.513.3402</t>
   </si>
   <si>
@@ -3122,6 +3119,9 @@
   </si>
   <si>
     <t>305.789.7710</t>
+  </si>
+  <si>
+    <t>617.854.1456</t>
   </si>
   <si>
     <t>214.969.1209</t>
@@ -3746,7 +3746,7 @@
         <v>1083</v>
       </c>
       <c r="H2" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>1083</v>
       </c>
       <c r="H3" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>1083</v>
       </c>
       <c r="H4" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>1083</v>
       </c>
       <c r="H5" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>1083</v>
       </c>
       <c r="H6" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>1083</v>
       </c>
       <c r="H7" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>1083</v>
       </c>
       <c r="H8" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>1083</v>
       </c>
       <c r="H9" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>1083</v>
       </c>
       <c r="H10" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>1083</v>
       </c>
       <c r="H11" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>1083</v>
       </c>
       <c r="H12" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>1083</v>
       </c>
       <c r="H13" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>1083</v>
       </c>
       <c r="H14" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>1083</v>
       </c>
       <c r="H15" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>1083</v>
       </c>
       <c r="H16" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>1083</v>
       </c>
       <c r="H17" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>1083</v>
       </c>
       <c r="H18" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>1083</v>
       </c>
       <c r="H19" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>1083</v>
       </c>
       <c r="H20" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>1083</v>
       </c>
       <c r="H21" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>1084</v>
       </c>
       <c r="H22" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>1084</v>
       </c>
       <c r="H23" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>1084</v>
       </c>
       <c r="H24" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>1084</v>
       </c>
       <c r="H25" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>1084</v>
       </c>
       <c r="H26" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>1084</v>
       </c>
       <c r="H27" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>1084</v>
       </c>
       <c r="H28" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>1084</v>
       </c>
       <c r="H29" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>1084</v>
       </c>
       <c r="H30" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>1084</v>
       </c>
       <c r="H31" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>1084</v>
       </c>
       <c r="H32" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>1084</v>
       </c>
       <c r="H33" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>1084</v>
       </c>
       <c r="H34" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>1084</v>
       </c>
       <c r="H35" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>1084</v>
       </c>
       <c r="H36" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>1084</v>
       </c>
       <c r="H37" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>1084</v>
       </c>
       <c r="H38" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>1084</v>
       </c>
       <c r="H39" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>1084</v>
       </c>
       <c r="H40" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>1084</v>
       </c>
       <c r="H41" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>1085</v>
       </c>
       <c r="H42" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>1085</v>
       </c>
       <c r="H43" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>1085</v>
       </c>
       <c r="H44" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>1085</v>
       </c>
       <c r="H45" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>1085</v>
       </c>
       <c r="H46" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>1085</v>
       </c>
       <c r="H47" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>1085</v>
       </c>
       <c r="H48" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>1085</v>
       </c>
       <c r="H49" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>1085</v>
       </c>
       <c r="H50" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>1085</v>
       </c>
       <c r="H51" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>1085</v>
       </c>
       <c r="H52" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>1085</v>
       </c>
       <c r="H53" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>1085</v>
       </c>
       <c r="H54" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>1085</v>
       </c>
       <c r="H55" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>1085</v>
       </c>
       <c r="H56" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>1085</v>
       </c>
       <c r="H57" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>1085</v>
       </c>
       <c r="H58" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>1085</v>
       </c>
       <c r="H59" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>1085</v>
       </c>
       <c r="H60" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>1085</v>
       </c>
       <c r="H61" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>1086</v>
       </c>
       <c r="H62" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>1086</v>
       </c>
       <c r="H63" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>1086</v>
       </c>
       <c r="H64" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>1086</v>
       </c>
       <c r="H65" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>1086</v>
       </c>
       <c r="H66" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>1086</v>
       </c>
       <c r="H67" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>1086</v>
       </c>
       <c r="H68" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>1086</v>
       </c>
       <c r="H69" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>1086</v>
       </c>
       <c r="H70" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>1086</v>
       </c>
       <c r="H71" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>1086</v>
       </c>
       <c r="H72" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>1086</v>
       </c>
       <c r="H73" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>1086</v>
       </c>
       <c r="H74" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>1086</v>
       </c>
       <c r="H75" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>1086</v>
       </c>
       <c r="H76" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>1086</v>
       </c>
       <c r="H77" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>1086</v>
       </c>
       <c r="H78" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>1086</v>
       </c>
       <c r="H79" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>1086</v>
       </c>
       <c r="H80" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>1086</v>
       </c>
       <c r="H81" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>1087</v>
       </c>
       <c r="H82" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>1087</v>
       </c>
       <c r="H83" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>1087</v>
       </c>
       <c r="H84" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>1087</v>
       </c>
       <c r="H85" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>1087</v>
       </c>
       <c r="H86" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>1087</v>
       </c>
       <c r="H87" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>1087</v>
       </c>
       <c r="H88" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>1087</v>
       </c>
       <c r="H89" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>1087</v>
       </c>
       <c r="H90" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>1087</v>
       </c>
       <c r="H91" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>1087</v>
       </c>
       <c r="H92" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>1087</v>
       </c>
       <c r="H93" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>1087</v>
       </c>
       <c r="H94" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>1087</v>
       </c>
       <c r="H95" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>1087</v>
       </c>
       <c r="H96" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>1087</v>
       </c>
       <c r="H97" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>1087</v>
       </c>
       <c r="H98" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>1087</v>
       </c>
       <c r="H99" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>1087</v>
       </c>
       <c r="H100" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>1087</v>
       </c>
       <c r="H101" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>1088</v>
       </c>
       <c r="H102" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>1088</v>
       </c>
       <c r="H103" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>1088</v>
       </c>
       <c r="H104" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>1088</v>
       </c>
       <c r="H105" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>1088</v>
       </c>
       <c r="H106" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>1088</v>
       </c>
       <c r="H107" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>1088</v>
       </c>
       <c r="H108" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>1088</v>
       </c>
       <c r="H109" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>1088</v>
       </c>
       <c r="H110" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>1088</v>
       </c>
       <c r="H111" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>1088</v>
       </c>
       <c r="H112" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>1088</v>
       </c>
       <c r="H113" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>1088</v>
       </c>
       <c r="H114" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>1088</v>
       </c>
       <c r="H115" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>1088</v>
       </c>
       <c r="H116" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>1088</v>
       </c>
       <c r="H117" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>1088</v>
       </c>
       <c r="H118" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>1088</v>
       </c>
       <c r="H119" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>1088</v>
       </c>
       <c r="H120" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>1088</v>
       </c>
       <c r="H121" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>1089</v>
       </c>
       <c r="H122" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>1089</v>
       </c>
       <c r="H123" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>1089</v>
       </c>
       <c r="H124" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>1089</v>
       </c>
       <c r="H125" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>1089</v>
       </c>
       <c r="H126" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>1089</v>
       </c>
       <c r="H127" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>1089</v>
       </c>
       <c r="H128" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>1089</v>
       </c>
       <c r="H129" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>1089</v>
       </c>
       <c r="H130" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>1089</v>
       </c>
       <c r="H131" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>1089</v>
       </c>
       <c r="H132" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>1089</v>
       </c>
       <c r="H133" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>1089</v>
       </c>
       <c r="H134" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>1089</v>
       </c>
       <c r="H135" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>1089</v>
       </c>
       <c r="H136" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>1089</v>
       </c>
       <c r="H137" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>1089</v>
       </c>
       <c r="H138" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>1089</v>
       </c>
       <c r="H139" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>1089</v>
       </c>
       <c r="H140" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>1089</v>
       </c>
       <c r="H141" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>1090</v>
       </c>
       <c r="H142" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>1090</v>
       </c>
       <c r="H143" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -7420,25 +7420,25 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C144" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D144" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E144" t="s">
-        <v>717</v>
+        <v>734</v>
       </c>
       <c r="F144" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="G144" s="2" t="s">
         <v>1090</v>
       </c>
       <c r="H144" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -7446,25 +7446,25 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C145" t="s">
         <v>354</v>
       </c>
       <c r="D145" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E145" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
       <c r="F145" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G145" s="2" t="s">
         <v>1090</v>
       </c>
       <c r="H145" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -7472,25 +7472,25 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C146" t="s">
         <v>354</v>
       </c>
       <c r="D146" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E146" t="s">
-        <v>734</v>
+        <v>708</v>
       </c>
       <c r="F146" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="G146" s="2" t="s">
         <v>1090</v>
       </c>
       <c r="H146" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -7498,25 +7498,25 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C147" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D147" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E147" t="s">
-        <v>725</v>
+        <v>734</v>
       </c>
       <c r="F147" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="G147" s="2" t="s">
         <v>1090</v>
       </c>
       <c r="H147" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -7524,25 +7524,25 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C148" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D148" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E148" t="s">
-        <v>709</v>
+        <v>725</v>
       </c>
       <c r="F148" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="G148" s="2" t="s">
         <v>1090</v>
       </c>
       <c r="H148" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -7550,25 +7550,25 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C149" t="s">
         <v>354</v>
       </c>
       <c r="D149" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E149" t="s">
-        <v>729</v>
+        <v>709</v>
       </c>
       <c r="F149" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="G149" s="2" t="s">
         <v>1090</v>
       </c>
       <c r="H149" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -7576,25 +7576,25 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C150" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D150" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E150" t="s">
-        <v>709</v>
+        <v>729</v>
       </c>
       <c r="F150" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="G150" s="2" t="s">
         <v>1090</v>
       </c>
       <c r="H150" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -7602,25 +7602,25 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C151" t="s">
         <v>353</v>
       </c>
       <c r="D151" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E151" t="s">
-        <v>734</v>
+        <v>709</v>
       </c>
       <c r="F151" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="G151" s="2" t="s">
         <v>1090</v>
       </c>
       <c r="H151" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -7628,25 +7628,25 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C152" t="s">
         <v>353</v>
       </c>
       <c r="D152" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E152" t="s">
-        <v>713</v>
+        <v>734</v>
       </c>
       <c r="F152" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="G152" s="2" t="s">
         <v>1090</v>
       </c>
       <c r="H152" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -7654,25 +7654,25 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C153" t="s">
         <v>353</v>
       </c>
       <c r="D153" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E153" t="s">
-        <v>725</v>
+        <v>713</v>
       </c>
       <c r="F153" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="G153" s="2" t="s">
         <v>1090</v>
       </c>
       <c r="H153" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -7680,25 +7680,25 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C154" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D154" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E154" t="s">
-        <v>717</v>
+        <v>725</v>
       </c>
       <c r="F154" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="G154" s="2" t="s">
         <v>1090</v>
       </c>
       <c r="H154" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -7706,25 +7706,25 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C155" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D155" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E155" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="F155" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="G155" s="2" t="s">
         <v>1090</v>
       </c>
       <c r="H155" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -7732,25 +7732,25 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C156" t="s">
         <v>353</v>
       </c>
       <c r="D156" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E156" t="s">
-        <v>731</v>
+        <v>714</v>
       </c>
       <c r="F156" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="G156" s="2" t="s">
         <v>1090</v>
       </c>
       <c r="H156" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -7758,25 +7758,25 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C157" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D157" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E157" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="F157" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="G157" s="2" t="s">
         <v>1090</v>
       </c>
       <c r="H157" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -7784,25 +7784,25 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C158" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D158" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E158" t="s">
-        <v>715</v>
+        <v>729</v>
       </c>
       <c r="F158" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="G158" s="2" t="s">
         <v>1090</v>
       </c>
       <c r="H158" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -7810,25 +7810,25 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C159" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="D159" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E159" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="F159" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="G159" s="2" t="s">
         <v>1090</v>
       </c>
       <c r="H159" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -7836,25 +7836,25 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C160" t="s">
         <v>353</v>
       </c>
       <c r="D160" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E160" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="F160" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G160" s="2" t="s">
         <v>1090</v>
       </c>
       <c r="H160" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -7862,25 +7862,25 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C161" t="s">
         <v>353</v>
       </c>
       <c r="D161" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E161" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="F161" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G161" s="2" t="s">
         <v>1090</v>
       </c>
       <c r="H161" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>1091</v>
       </c>
       <c r="H162" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>1091</v>
       </c>
       <c r="H163" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>1091</v>
       </c>
       <c r="H164" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>1091</v>
       </c>
       <c r="H165" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>1091</v>
       </c>
       <c r="H166" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>1091</v>
       </c>
       <c r="H167" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>1091</v>
       </c>
       <c r="H168" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>1091</v>
       </c>
       <c r="H169" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>1091</v>
       </c>
       <c r="H170" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>1091</v>
       </c>
       <c r="H171" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>1091</v>
       </c>
       <c r="H172" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>1091</v>
       </c>
       <c r="H173" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>1091</v>
       </c>
       <c r="H174" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>1091</v>
       </c>
       <c r="H175" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>1091</v>
       </c>
       <c r="H176" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>1091</v>
       </c>
       <c r="H177" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>1091</v>
       </c>
       <c r="H178" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>1091</v>
       </c>
       <c r="H179" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>1091</v>
       </c>
       <c r="H180" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>1091</v>
       </c>
       <c r="H181" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>1092</v>
       </c>
       <c r="H182" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>1092</v>
       </c>
       <c r="H183" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>1092</v>
       </c>
       <c r="H184" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>1092</v>
       </c>
       <c r="H185" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>1092</v>
       </c>
       <c r="H186" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>1092</v>
       </c>
       <c r="H187" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>1092</v>
       </c>
       <c r="H188" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>1092</v>
       </c>
       <c r="H189" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>1092</v>
       </c>
       <c r="H190" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>1092</v>
       </c>
       <c r="H191" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>1092</v>
       </c>
       <c r="H192" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>1092</v>
       </c>
       <c r="H193" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>1092</v>
       </c>
       <c r="H194" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>1092</v>
       </c>
       <c r="H195" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>1092</v>
       </c>
       <c r="H196" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>1092</v>
       </c>
       <c r="H197" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>1092</v>
       </c>
       <c r="H198" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>1092</v>
       </c>
       <c r="H199" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>1092</v>
       </c>
       <c r="H200" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>1092</v>
       </c>
       <c r="H201" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>1093</v>
       </c>
       <c r="H202" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>1093</v>
       </c>
       <c r="H203" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>1093</v>
       </c>
       <c r="H204" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>1093</v>
       </c>
       <c r="H205" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>1093</v>
       </c>
       <c r="H206" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>1093</v>
       </c>
       <c r="H207" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>1093</v>
       </c>
       <c r="H208" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>1093</v>
       </c>
       <c r="H209" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>1093</v>
       </c>
       <c r="H210" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>1093</v>
       </c>
       <c r="H211" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>1093</v>
       </c>
       <c r="H212" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>1093</v>
       </c>
       <c r="H213" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>1093</v>
       </c>
       <c r="H214" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>1093</v>
       </c>
       <c r="H215" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>1093</v>
       </c>
       <c r="H216" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>1093</v>
       </c>
       <c r="H217" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>1093</v>
       </c>
       <c r="H218" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>1093</v>
       </c>
       <c r="H219" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>1093</v>
       </c>
       <c r="H220" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>1093</v>
       </c>
       <c r="H221" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -9448,25 +9448,25 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C222" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D222" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E222" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="F222" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G222" s="2" t="s">
         <v>1094</v>
       </c>
       <c r="H222" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -9474,25 +9474,25 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C223" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D223" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E223" t="s">
-        <v>722</v>
+        <v>734</v>
       </c>
       <c r="F223" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G223" s="2" t="s">
         <v>1094</v>
       </c>
       <c r="H223" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -9500,25 +9500,25 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C224" t="s">
         <v>354</v>
       </c>
       <c r="D224" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E224" t="s">
-        <v>715</v>
+        <v>722</v>
       </c>
       <c r="F224" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="G224" s="2" t="s">
         <v>1094</v>
       </c>
       <c r="H224" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -9526,25 +9526,25 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C225" t="s">
         <v>354</v>
       </c>
       <c r="D225" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E225" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F225" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="G225" s="2" t="s">
         <v>1094</v>
       </c>
       <c r="H225" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -9552,25 +9552,25 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C226" t="s">
         <v>354</v>
       </c>
       <c r="D226" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E226" t="s">
-        <v>734</v>
+        <v>716</v>
       </c>
       <c r="F226" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="G226" s="2" t="s">
         <v>1094</v>
       </c>
       <c r="H226" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -9578,25 +9578,25 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C227" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D227" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E227" t="s">
-        <v>710</v>
+        <v>734</v>
       </c>
       <c r="F227" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="G227" s="2" t="s">
         <v>1094</v>
       </c>
       <c r="H227" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -9604,25 +9604,25 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C228" t="s">
         <v>353</v>
       </c>
       <c r="D228" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E228" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="F228" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="G228" s="2" t="s">
         <v>1094</v>
       </c>
       <c r="H228" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -9630,25 +9630,25 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C229" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D229" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E229" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="F229" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="G229" s="2" t="s">
         <v>1094</v>
       </c>
       <c r="H229" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -9656,25 +9656,25 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C230" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D230" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E230" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="F230" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="G230" s="2" t="s">
         <v>1094</v>
       </c>
       <c r="H230" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -9682,25 +9682,25 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C231" t="s">
         <v>353</v>
       </c>
       <c r="D231" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E231" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="F231" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="G231" s="2" t="s">
         <v>1094</v>
       </c>
       <c r="H231" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -9708,25 +9708,25 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C232" t="s">
         <v>353</v>
       </c>
       <c r="D232" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E232" t="s">
-        <v>708</v>
+        <v>722</v>
       </c>
       <c r="F232" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="G232" s="2" t="s">
         <v>1094</v>
       </c>
       <c r="H232" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -9734,25 +9734,25 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C233" t="s">
         <v>353</v>
       </c>
       <c r="D233" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E233" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="F233" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="G233" s="2" t="s">
         <v>1094</v>
       </c>
       <c r="H233" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -9760,25 +9760,25 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C234" t="s">
         <v>353</v>
       </c>
       <c r="D234" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E234" t="s">
-        <v>734</v>
+        <v>718</v>
       </c>
       <c r="F234" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="G234" s="2" t="s">
         <v>1094</v>
       </c>
       <c r="H234" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -9786,25 +9786,25 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C235" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D235" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E235" t="s">
-        <v>715</v>
+        <v>734</v>
       </c>
       <c r="F235" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="G235" s="2" t="s">
         <v>1094</v>
       </c>
       <c r="H235" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -9812,25 +9812,25 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C236" t="s">
         <v>354</v>
       </c>
       <c r="D236" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E236" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="F236" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="G236" s="2" t="s">
         <v>1094</v>
       </c>
       <c r="H236" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -9838,25 +9838,25 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C237" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D237" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E237" t="s">
-        <v>710</v>
+        <v>722</v>
       </c>
       <c r="F237" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="G237" s="2" t="s">
         <v>1094</v>
       </c>
       <c r="H237" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -9864,25 +9864,25 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C238" t="s">
         <v>353</v>
       </c>
       <c r="D238" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E238" t="s">
-        <v>734</v>
+        <v>710</v>
       </c>
       <c r="F238" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="G238" s="2" t="s">
         <v>1094</v>
       </c>
       <c r="H238" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -9890,25 +9890,25 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C239" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D239" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E239" t="s">
-        <v>722</v>
+        <v>734</v>
       </c>
       <c r="F239" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="G239" s="2" t="s">
         <v>1094</v>
       </c>
       <c r="H239" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -9916,25 +9916,25 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C240" t="s">
         <v>354</v>
       </c>
       <c r="D240" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E240" t="s">
-        <v>712</v>
+        <v>722</v>
       </c>
       <c r="F240" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="G240" s="2" t="s">
         <v>1094</v>
       </c>
       <c r="H240" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -9942,25 +9942,25 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C241" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D241" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E241" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="F241" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="G241" s="2" t="s">
         <v>1094</v>
       </c>
       <c r="H241" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -9968,25 +9968,25 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C242" t="s">
         <v>353</v>
       </c>
       <c r="D242" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E242" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
       <c r="F242" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="G242" s="2" t="s">
         <v>1095</v>
       </c>
       <c r="H242" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -9994,25 +9994,25 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C243" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="D243" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E243" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="F243" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="G243" s="2" t="s">
         <v>1095</v>
       </c>
       <c r="H243" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -10020,25 +10020,25 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C244" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="D244" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E244" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="F244" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="G244" s="2" t="s">
         <v>1095</v>
       </c>
       <c r="H244" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -10046,25 +10046,25 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C245" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D245" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E245" t="s">
-        <v>727</v>
+        <v>711</v>
       </c>
       <c r="F245" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="G245" s="2" t="s">
         <v>1095</v>
       </c>
       <c r="H245" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -10072,25 +10072,25 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C246" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D246" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E246" t="s">
-        <v>712</v>
+        <v>727</v>
       </c>
       <c r="F246" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="G246" s="2" t="s">
         <v>1095</v>
       </c>
       <c r="H246" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -10098,25 +10098,25 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C247" t="s">
         <v>354</v>
       </c>
       <c r="D247" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E247" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="F247" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="G247" s="2" t="s">
         <v>1095</v>
       </c>
       <c r="H247" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -10124,25 +10124,25 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C248" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D248" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E248" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="F248" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="G248" s="2" t="s">
         <v>1095</v>
       </c>
       <c r="H248" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -10150,25 +10150,25 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C249" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D249" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E249" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="F249" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="G249" s="2" t="s">
         <v>1095</v>
       </c>
       <c r="H249" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -10176,25 +10176,25 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C250" t="s">
         <v>354</v>
       </c>
       <c r="D250" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E250" t="s">
-        <v>710</v>
+        <v>722</v>
       </c>
       <c r="F250" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="G250" s="2" t="s">
         <v>1095</v>
       </c>
       <c r="H250" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -10202,25 +10202,25 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C251" t="s">
         <v>354</v>
       </c>
       <c r="D251" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E251" t="s">
         <v>710</v>
       </c>
       <c r="F251" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="G251" s="2" t="s">
         <v>1095</v>
       </c>
       <c r="H251" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -10228,25 +10228,25 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C252" t="s">
         <v>354</v>
       </c>
       <c r="D252" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E252" t="s">
-        <v>723</v>
+        <v>710</v>
       </c>
       <c r="F252" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="G252" s="2" t="s">
         <v>1095</v>
       </c>
       <c r="H252" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -10254,25 +10254,25 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C253" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D253" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E253" t="s">
-        <v>715</v>
+        <v>723</v>
       </c>
       <c r="F253" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="G253" s="2" t="s">
         <v>1095</v>
       </c>
       <c r="H253" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -10280,25 +10280,25 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C254" t="s">
         <v>353</v>
       </c>
       <c r="D254" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E254" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="F254" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="G254" s="2" t="s">
         <v>1095</v>
       </c>
       <c r="H254" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -10306,25 +10306,25 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C255" t="s">
         <v>353</v>
       </c>
       <c r="D255" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E255" t="s">
         <v>722</v>
       </c>
       <c r="F255" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="G255" s="2" t="s">
         <v>1095</v>
       </c>
       <c r="H255" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -10332,25 +10332,25 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C256" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D256" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E256" t="s">
         <v>722</v>
       </c>
       <c r="F256" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="G256" s="2" t="s">
         <v>1095</v>
       </c>
       <c r="H256" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -10358,25 +10358,25 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C257" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D257" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E257" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="F257" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="G257" s="2" t="s">
         <v>1095</v>
       </c>
       <c r="H257" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -10384,25 +10384,25 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C258" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D258" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E258" t="s">
         <v>723</v>
       </c>
       <c r="F258" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="G258" s="2" t="s">
         <v>1095</v>
       </c>
       <c r="H258" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -10410,25 +10410,25 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C259" t="s">
         <v>354</v>
       </c>
       <c r="D259" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E259" t="s">
-        <v>715</v>
+        <v>723</v>
       </c>
       <c r="F259" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G259" s="2" t="s">
         <v>1095</v>
       </c>
       <c r="H259" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -10436,25 +10436,25 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C260" t="s">
         <v>354</v>
       </c>
       <c r="D260" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E260" t="s">
-        <v>734</v>
+        <v>715</v>
       </c>
       <c r="F260" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="G260" s="2" t="s">
         <v>1095</v>
       </c>
       <c r="H260" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -10462,25 +10462,25 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C261" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D261" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E261" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="F261" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="G261" s="2" t="s">
         <v>1095</v>
       </c>
       <c r="H261" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -10488,25 +10488,25 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C262" t="s">
         <v>353</v>
       </c>
       <c r="D262" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E262" t="s">
-        <v>715</v>
+        <v>737</v>
       </c>
       <c r="F262" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="G262" s="2" t="s">
         <v>1096</v>
       </c>
       <c r="H262" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -10514,25 +10514,25 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C263" t="s">
         <v>353</v>
       </c>
       <c r="D263" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E263" t="s">
         <v>715</v>
       </c>
       <c r="F263" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="G263" s="2" t="s">
         <v>1096</v>
       </c>
       <c r="H263" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -10540,25 +10540,25 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C264" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D264" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E264" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="F264" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="G264" s="2" t="s">
         <v>1096</v>
       </c>
       <c r="H264" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -10566,25 +10566,25 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C265" t="s">
         <v>354</v>
       </c>
       <c r="D265" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E265" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="F265" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="G265" s="2" t="s">
         <v>1096</v>
       </c>
       <c r="H265" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -10592,25 +10592,25 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C266" t="s">
         <v>354</v>
       </c>
       <c r="D266" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E266" t="s">
-        <v>723</v>
+        <v>712</v>
       </c>
       <c r="F266" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="G266" s="2" t="s">
         <v>1096</v>
       </c>
       <c r="H266" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -10618,25 +10618,25 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C267" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D267" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E267" t="s">
-        <v>717</v>
+        <v>723</v>
       </c>
       <c r="F267" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="G267" s="2" t="s">
         <v>1096</v>
       </c>
       <c r="H267" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -10644,25 +10644,25 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C268" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D268" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E268" t="s">
-        <v>737</v>
+        <v>717</v>
       </c>
       <c r="F268" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="G268" s="2" t="s">
         <v>1096</v>
       </c>
       <c r="H268" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -10670,25 +10670,25 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C269" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D269" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E269" t="s">
         <v>737</v>
       </c>
       <c r="F269" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="G269" s="2" t="s">
         <v>1096</v>
       </c>
       <c r="H269" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -10696,25 +10696,25 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C270" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="D270" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E270" t="s">
-        <v>722</v>
+        <v>737</v>
       </c>
       <c r="F270" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="G270" s="2" t="s">
         <v>1096</v>
       </c>
       <c r="H270" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -10722,25 +10722,25 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C271" t="s">
         <v>353</v>
       </c>
       <c r="D271" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E271" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="F271" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="G271" s="2" t="s">
         <v>1096</v>
       </c>
       <c r="H271" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -10748,25 +10748,25 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C272" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D272" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E272" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="F272" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="G272" s="2" t="s">
         <v>1096</v>
       </c>
       <c r="H272" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -10774,25 +10774,25 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C273" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D273" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E273" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="F273" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="G273" s="2" t="s">
         <v>1096</v>
       </c>
       <c r="H273" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -10800,25 +10800,25 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C274" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D274" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E274" t="s">
-        <v>712</v>
+        <v>728</v>
       </c>
       <c r="F274" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="G274" s="2" t="s">
         <v>1096</v>
       </c>
       <c r="H274" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -10826,25 +10826,25 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C275" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D275" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E275" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="F275" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="G275" s="2" t="s">
         <v>1096</v>
       </c>
       <c r="H275" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -10852,25 +10852,25 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C276" t="s">
         <v>353</v>
       </c>
       <c r="D276" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E276" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="F276" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="G276" s="2" t="s">
         <v>1096</v>
       </c>
       <c r="H276" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -10878,25 +10878,25 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C277" t="s">
         <v>353</v>
       </c>
       <c r="D277" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E277" t="s">
-        <v>722</v>
+        <v>730</v>
       </c>
       <c r="F277" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="G277" s="2" t="s">
         <v>1096</v>
       </c>
       <c r="H277" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -10904,25 +10904,25 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C278" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D278" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E278" t="s">
-        <v>715</v>
+        <v>722</v>
       </c>
       <c r="F278" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="G278" s="2" t="s">
         <v>1096</v>
       </c>
       <c r="H278" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -10930,25 +10930,25 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C279" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D279" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E279" t="s">
-        <v>729</v>
+        <v>715</v>
       </c>
       <c r="F279" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="G279" s="2" t="s">
         <v>1096</v>
       </c>
       <c r="H279" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -10956,25 +10956,25 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C280" t="s">
         <v>353</v>
       </c>
       <c r="D280" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E280" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="F280" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="G280" s="2" t="s">
         <v>1096</v>
       </c>
       <c r="H280" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -10982,25 +10982,25 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C281" t="s">
         <v>353</v>
       </c>
       <c r="D281" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E281" t="s">
-        <v>714</v>
+        <v>728</v>
       </c>
       <c r="F281" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="G281" s="2" t="s">
         <v>1096</v>
       </c>
       <c r="H281" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -11011,13 +11011,13 @@
         <v>286</v>
       </c>
       <c r="C282" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D282" t="s">
         <v>641</v>
       </c>
       <c r="E282" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="F282" t="s">
         <v>1016</v>
@@ -11026,7 +11026,7 @@
         <v>1097</v>
       </c>
       <c r="H282" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -11037,13 +11037,13 @@
         <v>287</v>
       </c>
       <c r="C283" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D283" t="s">
         <v>642</v>
       </c>
       <c r="E283" t="s">
-        <v>710</v>
+        <v>723</v>
       </c>
       <c r="F283" t="s">
         <v>1017</v>
@@ -11052,7 +11052,7 @@
         <v>1097</v>
       </c>
       <c r="H283" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -11063,13 +11063,13 @@
         <v>288</v>
       </c>
       <c r="C284" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="D284" t="s">
         <v>643</v>
       </c>
       <c r="E284" t="s">
-        <v>723</v>
+        <v>734</v>
       </c>
       <c r="F284" t="s">
         <v>1018</v>
@@ -11078,7 +11078,7 @@
         <v>1097</v>
       </c>
       <c r="H284" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -11095,7 +11095,7 @@
         <v>644</v>
       </c>
       <c r="E285" t="s">
-        <v>734</v>
+        <v>710</v>
       </c>
       <c r="F285" t="s">
         <v>1019</v>
@@ -11104,7 +11104,7 @@
         <v>1097</v>
       </c>
       <c r="H285" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -11115,13 +11115,13 @@
         <v>290</v>
       </c>
       <c r="C286" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D286" t="s">
         <v>645</v>
       </c>
       <c r="E286" t="s">
-        <v>710</v>
+        <v>716</v>
       </c>
       <c r="F286" t="s">
         <v>1020</v>
@@ -11130,7 +11130,7 @@
         <v>1097</v>
       </c>
       <c r="H286" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -11147,7 +11147,7 @@
         <v>646</v>
       </c>
       <c r="E287" t="s">
-        <v>716</v>
+        <v>728</v>
       </c>
       <c r="F287" t="s">
         <v>1021</v>
@@ -11156,7 +11156,7 @@
         <v>1097</v>
       </c>
       <c r="H287" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -11173,7 +11173,7 @@
         <v>647</v>
       </c>
       <c r="E288" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="F288" t="s">
         <v>1022</v>
@@ -11182,7 +11182,7 @@
         <v>1097</v>
       </c>
       <c r="H288" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -11193,13 +11193,13 @@
         <v>293</v>
       </c>
       <c r="C289" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="D289" t="s">
         <v>648</v>
       </c>
       <c r="E289" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="F289" t="s">
         <v>1023</v>
@@ -11208,7 +11208,7 @@
         <v>1097</v>
       </c>
       <c r="H289" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -11219,13 +11219,13 @@
         <v>294</v>
       </c>
       <c r="C290" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="D290" t="s">
         <v>649</v>
       </c>
       <c r="E290" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="F290" t="s">
         <v>1024</v>
@@ -11234,7 +11234,7 @@
         <v>1097</v>
       </c>
       <c r="H290" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -11245,13 +11245,13 @@
         <v>295</v>
       </c>
       <c r="C291" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D291" t="s">
         <v>650</v>
       </c>
       <c r="E291" t="s">
-        <v>712</v>
+        <v>727</v>
       </c>
       <c r="F291" t="s">
         <v>1025</v>
@@ -11260,7 +11260,7 @@
         <v>1097</v>
       </c>
       <c r="H291" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -11277,7 +11277,7 @@
         <v>651</v>
       </c>
       <c r="E292" t="s">
-        <v>727</v>
+        <v>710</v>
       </c>
       <c r="F292" t="s">
         <v>1026</v>
@@ -11286,7 +11286,7 @@
         <v>1097</v>
       </c>
       <c r="H292" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -11297,13 +11297,13 @@
         <v>297</v>
       </c>
       <c r="C293" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D293" t="s">
         <v>652</v>
       </c>
       <c r="E293" t="s">
-        <v>710</v>
+        <v>728</v>
       </c>
       <c r="F293" t="s">
         <v>1027</v>
@@ -11312,7 +11312,7 @@
         <v>1097</v>
       </c>
       <c r="H293" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -11323,13 +11323,13 @@
         <v>298</v>
       </c>
       <c r="C294" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D294" t="s">
         <v>653</v>
       </c>
       <c r="E294" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="F294" t="s">
         <v>1028</v>
@@ -11338,7 +11338,7 @@
         <v>1097</v>
       </c>
       <c r="H294" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -11349,13 +11349,13 @@
         <v>299</v>
       </c>
       <c r="C295" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D295" t="s">
         <v>654</v>
       </c>
       <c r="E295" t="s">
-        <v>722</v>
+        <v>711</v>
       </c>
       <c r="F295" t="s">
         <v>1029</v>
@@ -11364,7 +11364,7 @@
         <v>1097</v>
       </c>
       <c r="H295" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -11381,7 +11381,7 @@
         <v>655</v>
       </c>
       <c r="E296" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="F296" t="s">
         <v>1030</v>
@@ -11390,7 +11390,7 @@
         <v>1097</v>
       </c>
       <c r="H296" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -11401,13 +11401,13 @@
         <v>301</v>
       </c>
       <c r="C297" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D297" t="s">
         <v>656</v>
       </c>
       <c r="E297" t="s">
-        <v>715</v>
+        <v>723</v>
       </c>
       <c r="F297" t="s">
         <v>1031</v>
@@ -11416,7 +11416,7 @@
         <v>1097</v>
       </c>
       <c r="H297" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -11427,13 +11427,13 @@
         <v>302</v>
       </c>
       <c r="C298" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D298" t="s">
         <v>657</v>
       </c>
       <c r="E298" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="F298" t="s">
         <v>1032</v>
@@ -11442,7 +11442,7 @@
         <v>1097</v>
       </c>
       <c r="H298" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -11453,13 +11453,13 @@
         <v>303</v>
       </c>
       <c r="C299" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D299" t="s">
         <v>658</v>
       </c>
       <c r="E299" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F299" t="s">
         <v>1033</v>
@@ -11468,7 +11468,7 @@
         <v>1097</v>
       </c>
       <c r="H299" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -11485,7 +11485,7 @@
         <v>659</v>
       </c>
       <c r="E300" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="F300" t="s">
         <v>1034</v>
@@ -11494,7 +11494,7 @@
         <v>1097</v>
       </c>
       <c r="H300" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -11511,7 +11511,7 @@
         <v>660</v>
       </c>
       <c r="E301" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="F301" t="s">
         <v>1035</v>
@@ -11520,7 +11520,7 @@
         <v>1097</v>
       </c>
       <c r="H301" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>1098</v>
       </c>
       <c r="H302" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>1098</v>
       </c>
       <c r="H303" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>1098</v>
       </c>
       <c r="H304" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>1098</v>
       </c>
       <c r="H305" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>1098</v>
       </c>
       <c r="H306" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>1098</v>
       </c>
       <c r="H307" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>1098</v>
       </c>
       <c r="H308" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>1098</v>
       </c>
       <c r="H309" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>1098</v>
       </c>
       <c r="H310" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>1098</v>
       </c>
       <c r="H311" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>1098</v>
       </c>
       <c r="H312" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>1098</v>
       </c>
       <c r="H313" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>1098</v>
       </c>
       <c r="H314" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>1098</v>
       </c>
       <c r="H315" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>1098</v>
       </c>
       <c r="H316" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>1098</v>
       </c>
       <c r="H317" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>1098</v>
       </c>
       <c r="H318" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>1098</v>
       </c>
       <c r="H319" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>1098</v>
       </c>
       <c r="H320" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>1098</v>
       </c>
       <c r="H321" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -12048,25 +12048,25 @@
         <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C322" t="s">
         <v>353</v>
       </c>
       <c r="D322" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E322" t="s">
         <v>709</v>
       </c>
       <c r="F322" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="G322" s="2" t="s">
         <v>1099</v>
       </c>
       <c r="H322" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -12074,25 +12074,25 @@
         <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C323" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D323" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="E323" t="s">
-        <v>709</v>
+        <v>717</v>
       </c>
       <c r="F323" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="G323" s="2" t="s">
         <v>1099</v>
       </c>
       <c r="H323" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -12100,25 +12100,25 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C324" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D324" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="E324" t="s">
-        <v>717</v>
+        <v>728</v>
       </c>
       <c r="F324" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="G324" s="2" t="s">
         <v>1099</v>
       </c>
       <c r="H324" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -12126,25 +12126,25 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C325" t="s">
         <v>353</v>
       </c>
       <c r="D325" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="E325" t="s">
-        <v>728</v>
+        <v>715</v>
       </c>
       <c r="F325" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="G325" s="2" t="s">
         <v>1099</v>
       </c>
       <c r="H325" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -12152,25 +12152,25 @@
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C326" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D326" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="E326" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="F326" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="G326" s="2" t="s">
         <v>1099</v>
       </c>
       <c r="H326" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -12178,25 +12178,25 @@
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C327" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D327" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="E327" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="F327" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="G327" s="2" t="s">
         <v>1099</v>
       </c>
       <c r="H327" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -12204,25 +12204,25 @@
         <v>327</v>
       </c>
       <c r="B328" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C328" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D328" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="E328" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="F328" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="G328" s="2" t="s">
         <v>1099</v>
       </c>
       <c r="H328" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -12230,25 +12230,25 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C329" t="s">
         <v>354</v>
       </c>
       <c r="D329" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="E329" t="s">
         <v>715</v>
       </c>
       <c r="F329" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="G329" s="2" t="s">
         <v>1099</v>
       </c>
       <c r="H329" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -12256,25 +12256,25 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C330" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D330" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="E330" t="s">
         <v>715</v>
       </c>
       <c r="F330" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="G330" s="2" t="s">
         <v>1099</v>
       </c>
       <c r="H330" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -12282,25 +12282,25 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C331" t="s">
         <v>353</v>
       </c>
       <c r="D331" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="E331" t="s">
-        <v>715</v>
+        <v>724</v>
       </c>
       <c r="F331" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="G331" s="2" t="s">
         <v>1099</v>
       </c>
       <c r="H331" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -12308,25 +12308,25 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C332" t="s">
         <v>353</v>
       </c>
       <c r="D332" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="E332" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="F332" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="G332" s="2" t="s">
         <v>1099</v>
       </c>
       <c r="H332" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -12334,25 +12334,25 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C333" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D333" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="E333" t="s">
-        <v>719</v>
+        <v>730</v>
       </c>
       <c r="F333" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="G333" s="2" t="s">
         <v>1099</v>
       </c>
       <c r="H333" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -12360,25 +12360,25 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C334" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D334" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="E334" t="s">
-        <v>730</v>
+        <v>716</v>
       </c>
       <c r="F334" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="G334" s="2" t="s">
         <v>1099</v>
       </c>
       <c r="H334" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -12386,25 +12386,25 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C335" t="s">
         <v>353</v>
       </c>
       <c r="D335" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="E335" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="F335" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="G335" s="2" t="s">
         <v>1099</v>
       </c>
       <c r="H335" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -12412,25 +12412,25 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C336" t="s">
         <v>353</v>
       </c>
       <c r="D336" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="E336" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="F336" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="G336" s="2" t="s">
         <v>1099</v>
       </c>
       <c r="H336" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -12438,25 +12438,25 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C337" t="s">
         <v>353</v>
       </c>
       <c r="D337" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="E337" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="F337" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="G337" s="2" t="s">
         <v>1099</v>
       </c>
       <c r="H337" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -12464,25 +12464,25 @@
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C338" t="s">
         <v>353</v>
       </c>
       <c r="D338" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E338" t="s">
-        <v>713</v>
+        <v>732</v>
       </c>
       <c r="F338" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="G338" s="2" t="s">
         <v>1099</v>
       </c>
       <c r="H338" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -12490,25 +12490,25 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C339" t="s">
         <v>353</v>
       </c>
       <c r="D339" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="E339" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="F339" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="G339" s="2" t="s">
         <v>1099</v>
       </c>
       <c r="H339" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -12516,25 +12516,25 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C340" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D340" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="E340" t="s">
-        <v>729</v>
+        <v>713</v>
       </c>
       <c r="F340" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="G340" s="2" t="s">
         <v>1099</v>
       </c>
       <c r="H340" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -12542,25 +12542,25 @@
         <v>340</v>
       </c>
       <c r="B341" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C341" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D341" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="E341" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="F341" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="G341" s="2" t="s">
         <v>1099</v>
       </c>
       <c r="H341" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>1100</v>
       </c>
       <c r="H342" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>1100</v>
       </c>
       <c r="H343" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>1100</v>
       </c>
       <c r="H344" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>1100</v>
       </c>
       <c r="H345" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>1100</v>
       </c>
       <c r="H346" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>1100</v>
       </c>
       <c r="H347" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>1100</v>
       </c>
       <c r="H348" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>1100</v>
       </c>
       <c r="H349" s="3">
-        <v>44523.52843356081</v>
+        <v>44523.56825293132</v>
       </c>
     </row>
   </sheetData>
